--- a/Raffle Test.xlsx
+++ b/Raffle Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programmer\Documents\Raffle Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D132B-8A8E-44AE-A292-AAEDDF2A889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDD05C1-ED90-430D-A057-408453264018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37275" yWindow="-1200" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2445" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regular" sheetId="1" r:id="rId1"/>
@@ -1787,277 +1787,277 @@
     <t>Masangkay, Eugene</t>
   </si>
   <si>
+    <t>Gile, Julie Ann</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dinnerware Set </t>
+  </si>
+  <si>
+    <t>Torres Jr., Ronaldo</t>
+  </si>
+  <si>
+    <t>Mateo, Michelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electric Kettle </t>
+  </si>
+  <si>
+    <t>Caper, Miko</t>
+  </si>
+  <si>
+    <t>Velarde, April</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single Burner Stove </t>
+  </si>
+  <si>
+    <t>Que, John Adrian</t>
+  </si>
+  <si>
     <t>Aldas, Jenny</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dinnerware Set </t>
-  </si>
-  <si>
-    <t>Torres Jr., Ronaldo</t>
+    <t xml:space="preserve"> Coverlet </t>
+  </si>
+  <si>
+    <t>Nazareno, Anria</t>
+  </si>
+  <si>
+    <t>Garcia, Angel Mae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desk fan  </t>
+  </si>
+  <si>
+    <t>Morera, Gladys</t>
+  </si>
+  <si>
+    <t>Fontanilla, Sharmaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carribean Box Fan </t>
+  </si>
+  <si>
+    <t>Santillan, Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand Fan </t>
+  </si>
+  <si>
+    <t>Barrera, Crisel Joy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microwave Oven </t>
+  </si>
+  <si>
+    <t>Marasigan, Baby Lara</t>
+  </si>
+  <si>
+    <t>Malayo, Jessa</t>
+  </si>
+  <si>
+    <t>Tan, Shaira Rose</t>
+  </si>
+  <si>
+    <t>Calsado, Monique</t>
+  </si>
+  <si>
+    <t>Morite, Kim</t>
+  </si>
+  <si>
+    <t>Pempollo, Shaira Mia</t>
+  </si>
+  <si>
+    <t>Navarro, Carmela</t>
+  </si>
+  <si>
+    <t>Tomatao, Catherine</t>
+  </si>
+  <si>
+    <t>Afable, Archielyn Joy</t>
+  </si>
+  <si>
+    <t>Cordova, Ella Mae</t>
+  </si>
+  <si>
+    <t>Malubago, May Ann</t>
+  </si>
+  <si>
+    <t>Pancho, Emie Rose</t>
+  </si>
+  <si>
+    <t>Encinas, Jia</t>
+  </si>
+  <si>
+    <t>Dazal, Lealyn</t>
+  </si>
+  <si>
+    <t>Bugayong, Junavic</t>
+  </si>
+  <si>
+    <t>Nordan, Cristina</t>
+  </si>
+  <si>
+    <t>Gonzaga, Celestina</t>
+  </si>
+  <si>
+    <t>Endrinal, Mikaela</t>
+  </si>
+  <si>
+    <t>Paez, Mhelanie</t>
+  </si>
+  <si>
+    <t>Mondreza, Jeralyn</t>
+  </si>
+  <si>
+    <t>Abadilla, Geraldine</t>
+  </si>
+  <si>
+    <t>Vinluan, Daniella</t>
+  </si>
+  <si>
+    <t>Bernardino, Jesibelle</t>
+  </si>
+  <si>
+    <t>Daganzo, Stephanie Lewis</t>
+  </si>
+  <si>
+    <t>Arca, Robelie</t>
+  </si>
+  <si>
+    <t>Ballero, Ma. Syrie</t>
+  </si>
+  <si>
+    <t>Galing, Noreen</t>
+  </si>
+  <si>
+    <t>Dometita, Stephanie</t>
+  </si>
+  <si>
+    <t>Mataganas, Crischelle</t>
+  </si>
+  <si>
+    <t>Loren, Sofia</t>
+  </si>
+  <si>
+    <t>Segarino, Chressa Mae</t>
+  </si>
+  <si>
+    <t>Medrano, Luciana</t>
+  </si>
+  <si>
+    <t>Dejucos, Jerianne</t>
+  </si>
+  <si>
+    <t>Pluma, Alezandra</t>
+  </si>
+  <si>
+    <t>Taguinin, Zyra Mae</t>
+  </si>
+  <si>
+    <t>Guiquing, Angel</t>
+  </si>
+  <si>
+    <t>Maloles, Bea</t>
+  </si>
+  <si>
+    <t>Quindoza, Bhedel</t>
+  </si>
+  <si>
+    <t>Sarsuelo, Elchen</t>
+  </si>
+  <si>
+    <t>Pantoja, Camel Joy</t>
+  </si>
+  <si>
+    <t>Felicia, Carolyn</t>
+  </si>
+  <si>
+    <t>Doneza, Kristine Anne</t>
+  </si>
+  <si>
+    <t>Guanzon, Maezzy Anne Drew</t>
+  </si>
+  <si>
+    <t>Lopez, Katelyn</t>
+  </si>
+  <si>
+    <t>Bianzon, Julie Ann</t>
+  </si>
+  <si>
+    <t>Bustillos, Nika</t>
+  </si>
+  <si>
+    <t>Adarayan, Alma</t>
+  </si>
+  <si>
+    <t>Lunhayan, Kissa</t>
+  </si>
+  <si>
+    <t>Doblin, Perlyn</t>
+  </si>
+  <si>
+    <t>Duria, Jolina</t>
+  </si>
+  <si>
+    <t>Celian, Jenena</t>
+  </si>
+  <si>
+    <t>Estember, Pearl Joy</t>
+  </si>
+  <si>
+    <t>Viloria, Neil Cedrick</t>
+  </si>
+  <si>
+    <t>Lachica, Aldrina</t>
+  </si>
+  <si>
+    <t>Villamin, Ma. Alexa</t>
+  </si>
+  <si>
+    <t>Genova, Cherry Ann</t>
+  </si>
+  <si>
+    <t>Reyes, Jescyn-Kate</t>
+  </si>
+  <si>
+    <t>Palermo, Rica</t>
+  </si>
+  <si>
+    <t>Traviezo, Laira</t>
+  </si>
+  <si>
+    <t>Miguillo, Danica May</t>
+  </si>
+  <si>
+    <t>Crispo, Leslie</t>
+  </si>
+  <si>
+    <t>Afable, Josie Elaine</t>
+  </si>
+  <si>
+    <t>Magallanes, Honey Faith</t>
+  </si>
+  <si>
+    <t>Paguntalan, Krizel</t>
+  </si>
+  <si>
+    <t>Olaera, Rhena Mae</t>
+  </si>
+  <si>
+    <t>Tuyac, Charlene Jane</t>
+  </si>
+  <si>
+    <t>Aloy, Jenny</t>
+  </si>
+  <si>
+    <t>Roño, Jericca</t>
+  </si>
+  <si>
+    <t>Mendoza, Mary Rose</t>
   </si>
   <si>
     <t>Chiong, Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electric Kettle </t>
-  </si>
-  <si>
-    <t>Caper, Miko</t>
-  </si>
-  <si>
-    <t>Magallanes, Honey Faith</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Single Burner Stove </t>
-  </si>
-  <si>
-    <t>Que, John Adrian</t>
-  </si>
-  <si>
-    <t>Segarino, Chressa Mae</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coverlet </t>
-  </si>
-  <si>
-    <t>Nazareno, Anria</t>
-  </si>
-  <si>
-    <t>Pempollo, Shaira Mia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desk fan  </t>
-  </si>
-  <si>
-    <t>Morera, Gladys</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carribean Box Fan </t>
-  </si>
-  <si>
-    <t>Santillan, Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand Fan </t>
-  </si>
-  <si>
-    <t>Barrera, Crisel Joy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microwave Oven </t>
-  </si>
-  <si>
-    <t>Marasigan, Baby Lara</t>
-  </si>
-  <si>
-    <t>Malayo, Jessa</t>
-  </si>
-  <si>
-    <t>Tan, Shaira Rose</t>
-  </si>
-  <si>
-    <t>Calsado, Monique</t>
-  </si>
-  <si>
-    <t>Morite, Kim</t>
-  </si>
-  <si>
-    <t>Navarro, Carmela</t>
-  </si>
-  <si>
-    <t>Tomatao, Catherine</t>
-  </si>
-  <si>
-    <t>Afable, Archielyn Joy</t>
-  </si>
-  <si>
-    <t>Cordova, Ella Mae</t>
-  </si>
-  <si>
-    <t>Malubago, May Ann</t>
-  </si>
-  <si>
-    <t>Pancho, Emie Rose</t>
-  </si>
-  <si>
-    <t>Encinas, Jia</t>
-  </si>
-  <si>
-    <t>Dazal, Lealyn</t>
-  </si>
-  <si>
-    <t>Bugayong, Junavic</t>
-  </si>
-  <si>
-    <t>Nordan, Cristina</t>
-  </si>
-  <si>
-    <t>Gonzaga, Celestina</t>
-  </si>
-  <si>
-    <t>Endrinal, Mikaela</t>
-  </si>
-  <si>
-    <t>Paez, Mhelanie</t>
-  </si>
-  <si>
-    <t>Mondreza, Jeralyn</t>
-  </si>
-  <si>
-    <t>Abadilla, Geraldine</t>
-  </si>
-  <si>
-    <t>Vinluan, Daniella</t>
-  </si>
-  <si>
-    <t>Bernardino, Jesibelle</t>
-  </si>
-  <si>
-    <t>Daganzo, Stephanie Lewis</t>
-  </si>
-  <si>
-    <t>Arca, Robelie</t>
-  </si>
-  <si>
-    <t>Ballero, Ma. Syrie</t>
-  </si>
-  <si>
-    <t>Galing, Noreen</t>
-  </si>
-  <si>
-    <t>Dometita, Stephanie</t>
-  </si>
-  <si>
-    <t>Mataganas, Crischelle</t>
-  </si>
-  <si>
-    <t>Loren, Sofia</t>
-  </si>
-  <si>
-    <t>Medrano, Luciana</t>
-  </si>
-  <si>
-    <t>Dejucos, Jerianne</t>
-  </si>
-  <si>
-    <t>Pluma, Alezandra</t>
-  </si>
-  <si>
-    <t>Taguinin, Zyra Mae</t>
-  </si>
-  <si>
-    <t>Mateo, Michelle</t>
-  </si>
-  <si>
-    <t>Guiquing, Angel</t>
-  </si>
-  <si>
-    <t>Maloles, Bea</t>
-  </si>
-  <si>
-    <t>Quindoza, Bhedel</t>
-  </si>
-  <si>
-    <t>Sarsuelo, Elchen</t>
-  </si>
-  <si>
-    <t>Pantoja, Camel Joy</t>
-  </si>
-  <si>
-    <t>Felicia, Carolyn</t>
-  </si>
-  <si>
-    <t>Doneza, Kristine Anne</t>
-  </si>
-  <si>
-    <t>Guanzon, Maezzy Anne Drew</t>
-  </si>
-  <si>
-    <t>Lopez, Katelyn</t>
-  </si>
-  <si>
-    <t>Bianzon, Julie Ann</t>
-  </si>
-  <si>
-    <t>Bustillos, Nika</t>
-  </si>
-  <si>
-    <t>Adarayan, Alma</t>
-  </si>
-  <si>
-    <t>Lunhayan, Kissa</t>
-  </si>
-  <si>
-    <t>Doblin, Perlyn</t>
-  </si>
-  <si>
-    <t>Duria, Jolina</t>
-  </si>
-  <si>
-    <t>Celian, Jenena</t>
-  </si>
-  <si>
-    <t>Estember, Pearl Joy</t>
-  </si>
-  <si>
-    <t>Viloria, Neil Cedrick</t>
-  </si>
-  <si>
-    <t>Lachica, Aldrina</t>
-  </si>
-  <si>
-    <t>Villamin, Ma. Alexa</t>
-  </si>
-  <si>
-    <t>Genova, Cherry Ann</t>
-  </si>
-  <si>
-    <t>Reyes, Jescyn-Kate</t>
-  </si>
-  <si>
-    <t>Palermo, Rica</t>
-  </si>
-  <si>
-    <t>Traviezo, Laira</t>
-  </si>
-  <si>
-    <t>Fontanilla, Sharmaine</t>
-  </si>
-  <si>
-    <t>Miguillo, Danica May</t>
-  </si>
-  <si>
-    <t>Crispo, Leslie</t>
-  </si>
-  <si>
-    <t>Gile, Julie Ann</t>
-  </si>
-  <si>
-    <t>Afable, Josie Elaine</t>
-  </si>
-  <si>
-    <t>Paguntalan, Krizel</t>
-  </si>
-  <si>
-    <t>Olaera, Rhena Mae</t>
-  </si>
-  <si>
-    <t>Tuyac, Charlene Jane</t>
-  </si>
-  <si>
-    <t>Aloy, Jenny</t>
-  </si>
-  <si>
-    <t>Roño, Jericca</t>
-  </si>
-  <si>
-    <t>Garcia, Angel Mae</t>
-  </si>
-  <si>
-    <t>Mendoza, Mary Rose</t>
-  </si>
-  <si>
-    <t>Velarde, April</t>
   </si>
   <si>
     <t>Antolin, Abegail</t>
@@ -2570,8 +2570,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J584"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2581,8 +2581,8 @@
     <col min="7" max="7" width="26.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.5703125" style="3" customWidth="1"/>
-    <col min="10" max="34" width="26.7109375" style="3" customWidth="1"/>
-    <col min="35" max="16384" width="26.7109375" style="3"/>
+    <col min="10" max="35" width="26.7109375" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="26.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -7731,16 +7731,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="33" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="26.7109375" style="3" customWidth="1"/>
-    <col min="35" max="16384" width="26.7109375" style="3"/>
+    <col min="3" max="35" width="26.7109375" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="26.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -7872,7 +7872,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -7884,13 +7884,13 @@
         <v>85</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -7902,13 +7902,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -7920,7 +7920,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -7931,7 +7931,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -7942,7 +7942,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -7953,7 +7953,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -7964,7 +7964,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -7975,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -7986,7 +7986,7 @@
         <v>90</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -7997,7 +7997,7 @@
         <v>91</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -8008,7 +8008,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -8019,7 +8019,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -8030,7 +8030,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -8041,7 +8041,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -8052,7 +8052,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -8063,7 +8063,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -8074,7 +8074,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -8085,7 +8085,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -8096,7 +8096,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8107,7 +8107,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8118,7 +8118,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -8129,7 +8129,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -8140,7 +8140,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8151,7 +8151,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -8162,7 +8162,7 @@
         <v>55</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8173,7 +8173,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8184,7 +8184,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8192,7 +8192,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8200,7 +8200,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8208,7 +8208,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8216,7 +8216,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8224,7 +8224,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8232,7 +8232,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8240,7 +8240,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8248,7 +8248,7 @@
         <v>54</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8256,7 +8256,7 @@
         <v>65</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8264,7 +8264,7 @@
         <v>73</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8272,7 +8272,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8280,7 +8280,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8288,7 +8288,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8296,7 +8296,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8304,7 +8304,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8312,7 +8312,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8320,7 +8320,7 @@
         <v>78</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8328,7 +8328,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8344,7 +8344,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8352,7 +8352,7 @@
         <v>87</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8360,7 +8360,7 @@
         <v>40</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8368,7 +8368,7 @@
         <v>82</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8376,7 +8376,7 @@
         <v>84</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8384,7 +8384,7 @@
         <v>18</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8392,7 +8392,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8400,7 +8400,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8416,7 +8416,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8424,7 +8424,7 @@
         <v>79</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8440,7 +8440,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8448,7 +8448,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8456,7 +8456,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8464,7 +8464,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,7 +8472,7 @@
         <v>75</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8480,7 +8480,7 @@
         <v>58</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>665</v>
+        <v>602</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8488,7 +8488,7 @@
         <v>29</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8496,7 +8496,7 @@
         <v>20</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8504,7 +8504,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>668</v>
+        <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8520,7 +8520,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8528,7 +8528,7 @@
         <v>30</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8544,7 +8544,7 @@
         <v>89</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8552,7 +8552,7 @@
         <v>81</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8560,7 +8560,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8568,7 +8568,7 @@
         <v>43</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>675</v>
+        <v>599</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8584,7 +8584,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>677</v>
+        <v>593</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -8592,7 +8592,7 @@
         <v>31</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>590</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
